--- a/outputs-HGR-r202/o__RF32.xlsx
+++ b/outputs-HGR-r202/o__RF32.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E160"/>
+  <dimension ref="A1:F160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,6 +460,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -481,6 +486,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -502,6 +512,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -523,6 +538,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -544,6 +564,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -565,6 +590,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -586,6 +616,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -607,6 +642,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -628,6 +668,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -649,6 +694,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -670,6 +720,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -691,6 +746,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -712,6 +772,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -733,6 +798,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -754,6 +824,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -775,6 +850,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -796,6 +876,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -817,6 +902,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -838,6 +928,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -859,6 +954,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -880,6 +980,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -901,6 +1006,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -922,6 +1032,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -943,6 +1058,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -964,6 +1084,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -985,6 +1110,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1006,6 +1136,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1027,6 +1162,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1048,6 +1188,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1069,6 +1214,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1090,6 +1240,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1111,6 +1266,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1132,6 +1292,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1153,6 +1318,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1174,6 +1344,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1195,6 +1370,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1216,6 +1396,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1237,6 +1422,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1258,6 +1448,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1279,6 +1474,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1300,6 +1500,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1321,6 +1526,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1342,6 +1552,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1363,6 +1578,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1384,6 +1604,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1405,6 +1630,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1426,6 +1656,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1447,6 +1682,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1468,6 +1708,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1489,6 +1734,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1510,6 +1760,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1531,6 +1786,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -1552,6 +1812,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -1573,6 +1838,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -1594,6 +1864,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -1615,6 +1890,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -1636,6 +1916,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -1657,6 +1942,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -1678,6 +1968,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -1699,6 +1994,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -1720,6 +2020,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -1741,6 +2046,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -1762,6 +2072,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -1783,6 +2098,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -1804,6 +2124,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -1825,6 +2150,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -1846,6 +2176,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -1867,6 +2202,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -1888,6 +2228,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -1909,6 +2254,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -1930,6 +2280,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -1951,6 +2306,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -1972,6 +2332,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -1993,6 +2358,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -2014,6 +2384,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -2035,6 +2410,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -2056,6 +2436,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -2077,6 +2462,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -2098,6 +2488,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -2119,6 +2514,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -2140,6 +2540,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -2161,6 +2566,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -2182,6 +2592,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -2203,6 +2618,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -2224,6 +2644,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -2245,6 +2670,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -2266,6 +2696,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -2287,6 +2722,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -2308,6 +2748,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -2329,6 +2774,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -2350,6 +2800,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -2371,6 +2826,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -2392,6 +2852,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -2413,6 +2878,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -2434,6 +2904,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -2455,6 +2930,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -2476,6 +2956,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -2497,6 +2982,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -2518,6 +3008,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -2539,6 +3034,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -2560,6 +3060,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -2581,6 +3086,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -2602,6 +3112,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -2623,6 +3138,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -2644,6 +3164,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -2665,6 +3190,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -2686,6 +3216,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -2707,6 +3242,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -2728,6 +3268,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -2749,6 +3294,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -2770,6 +3320,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -2791,6 +3346,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -2812,6 +3372,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -2833,6 +3398,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -2854,6 +3424,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -2875,6 +3450,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -2896,6 +3476,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -2917,6 +3502,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -2938,6 +3528,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -2959,6 +3554,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -2980,6 +3580,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -3001,6 +3606,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -3022,6 +3632,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
@@ -3043,6 +3658,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
@@ -3064,6 +3684,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
@@ -3085,6 +3710,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
@@ -3106,6 +3736,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
@@ -3127,6 +3762,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
@@ -3148,6 +3788,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -3169,6 +3814,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
@@ -3190,6 +3840,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
@@ -3211,6 +3866,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
@@ -3232,6 +3892,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
@@ -3253,6 +3918,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
@@ -3274,6 +3944,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
@@ -3295,6 +3970,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
@@ -3316,6 +3996,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
@@ -3337,6 +4022,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
@@ -3358,6 +4048,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
@@ -3379,6 +4074,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
@@ -3400,6 +4100,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
@@ -3421,6 +4126,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
@@ -3442,6 +4152,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
@@ -3463,6 +4178,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
@@ -3484,6 +4204,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
@@ -3505,6 +4230,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
@@ -3526,6 +4256,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
@@ -3547,6 +4282,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
@@ -3568,6 +4308,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
@@ -3589,6 +4334,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
@@ -3610,6 +4360,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
@@ -3631,6 +4386,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
@@ -3652,6 +4412,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
@@ -3673,6 +4438,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
@@ -3694,6 +4464,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
@@ -3715,6 +4490,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
@@ -3736,6 +4516,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
@@ -3757,6 +4542,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
@@ -3778,6 +4568,11 @@
           <t>f__CAG-239</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
@@ -3795,6 +4590,11 @@
         <v>0.9998694139953608</v>
       </c>
       <c r="E160" t="inlineStr">
+        <is>
+          <t>f__CAG-239</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
         <is>
           <t>f__CAG-239</t>
         </is>

--- a/outputs-HGR-r202/o__RF32.xlsx
+++ b/outputs-HGR-r202/o__RF32.xlsx
@@ -1970,7 +1970,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>f__CAG-977</t>
+          <t>f__CAG-977(reject)</t>
         </is>
       </c>
     </row>
